--- a/sorted_maintenance_tasks.xlsx
+++ b/sorted_maintenance_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bramv\Documents\MaintenanceECOFly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FEA56A-3EDA-4B0F-87B1-C094CFBCD2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE978696-6068-4F59-8799-3DE4332B2143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,7 +731,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3">
-        <v>1850</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -739,7 +739,15 @@
         <v>40</v>
       </c>
       <c r="B41" s="3">
-        <v>1950</v>
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1770</v>
       </c>
     </row>
   </sheetData>

--- a/sorted_maintenance_tasks.xlsx
+++ b/sorted_maintenance_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bramv\Documents\MaintenanceECOFly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE978696-6068-4F59-8799-3DE4332B2143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99107DEA-5D7D-4B22-BDBF-42E8FF587514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="17376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -78,30 +78,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -406,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,7 +413,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -435,7 +421,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -443,311 +429,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
         <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="2">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>41</v>
-      </c>
-      <c r="B42" s="3">
-        <v>1770</v>
       </c>
     </row>
   </sheetData>

--- a/sorted_maintenance_tasks.xlsx
+++ b/sorted_maintenance_tasks.xlsx
@@ -8,31 +8,68 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bramv\Documents\MaintenanceECOFly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99107DEA-5D7D-4B22-BDBF-42E8FF587514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58C613D-09B2-4AA1-BC42-0E94E70B2392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="17376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Task Number</t>
   </si>
   <si>
     <t>Interval (Days)</t>
+  </si>
+  <si>
+    <t>0620000-00-01</t>
+  </si>
+  <si>
+    <t>0620000-00-02</t>
+  </si>
+  <si>
+    <t>0620000-00-03</t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>Menhours</t>
+  </si>
+  <si>
+    <t>0620000-00-04</t>
+  </si>
+  <si>
+    <t>0620000-00-05</t>
+  </si>
+  <si>
+    <t>0620000-00-06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,6 +83,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -55,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -78,16 +121,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -392,47 +449,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2</v>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>3</v>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>5</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/sorted_maintenance_tasks.xlsx
+++ b/sorted_maintenance_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bramv\Documents\MaintenanceECOFly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58C613D-09B2-4AA1-BC42-0E94E70B2392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D6D26A-123D-4AC2-A739-A50CD66270B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Task Number</t>
   </si>
@@ -41,28 +41,55 @@
     <t>Interval (Days)</t>
   </si>
   <si>
-    <t>0620000-00-01</t>
-  </si>
-  <si>
-    <t>0620000-00-02</t>
-  </si>
-  <si>
-    <t>0620000-00-03</t>
-  </si>
-  <si>
     <t>Men</t>
   </si>
   <si>
     <t>Menhours</t>
   </si>
   <si>
-    <t>0620000-00-04</t>
-  </si>
-  <si>
-    <t>0620000-00-05</t>
-  </si>
-  <si>
-    <t>0620000-00-06</t>
+    <t>524504-50-01</t>
+  </si>
+  <si>
+    <t>212700-00-01</t>
+  </si>
+  <si>
+    <t>262400-00-02</t>
+  </si>
+  <si>
+    <t>335000-02-04</t>
+  </si>
+  <si>
+    <t>342200-00-01</t>
+  </si>
+  <si>
+    <t>341100-50-01</t>
+  </si>
+  <si>
+    <t>494000-00-01</t>
+  </si>
+  <si>
+    <t>521102-00-09</t>
+  </si>
+  <si>
+    <t>801000-00-02</t>
+  </si>
+  <si>
+    <t>531019-00-05</t>
+  </si>
+  <si>
+    <t>062403-00-01</t>
+  </si>
+  <si>
+    <t>215000-00-09</t>
+  </si>
+  <si>
+    <t>241000-00-02</t>
+  </si>
+  <si>
+    <t>254201-00-01</t>
+  </si>
+  <si>
+    <t>255100-00-01</t>
   </si>
 </sst>
 </file>
@@ -98,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -121,31 +148,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,18 +475,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -485,12 +495,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>365</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -499,12 +509,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>5</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>365</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -513,26 +523,26 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
-        <v>10</v>
+      <c r="B5">
+        <v>365</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
-        <v>20</v>
+      <c r="B6">
+        <v>365</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -541,18 +551,194 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
-        <v>21</v>
+      <c r="B7">
+        <v>365</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <f>ROUNDDOWN(1000/14,0)</f>
+        <v>71</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>1000</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <f>ROUNDDOWN(1000/13,0)</f>
+        <v>76</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:B18" si="0">ROUNDDOWN(1000/13,0)</f>
+        <v>76</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f>ROUNDDOWN(1000/13,0)</f>
+        <v>76</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/sorted_maintenance_tasks.xlsx
+++ b/sorted_maintenance_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bramv\Documents\MaintenanceECOFly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D6D26A-123D-4AC2-A739-A50CD66270B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508F0167-3D73-4DC3-9A92-BE7EEA3272A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Task Number</t>
   </si>
@@ -65,31 +65,28 @@
     <t>341100-50-01</t>
   </si>
   <si>
-    <t>494000-00-01</t>
-  </si>
-  <si>
-    <t>521102-00-09</t>
-  </si>
-  <si>
-    <t>801000-00-02</t>
-  </si>
-  <si>
-    <t>531019-00-05</t>
-  </si>
-  <si>
-    <t>062403-00-01</t>
-  </si>
-  <si>
-    <t>215000-00-09</t>
-  </si>
-  <si>
-    <t>241000-00-02</t>
-  </si>
-  <si>
-    <t>254201-00-01</t>
-  </si>
-  <si>
-    <t>255100-00-01</t>
+    <t>321100-03-09</t>
+  </si>
+  <si>
+    <t>321100-00-15</t>
+  </si>
+  <si>
+    <t>353100-00-02</t>
+  </si>
+  <si>
+    <t>353103-00-01</t>
+  </si>
+  <si>
+    <t>321100-01-09</t>
+  </si>
+  <si>
+    <t>323200-50-01</t>
+  </si>
+  <si>
+    <t>324200-00-05</t>
+  </si>
+  <si>
+    <t>300000-50-01</t>
   </si>
 </sst>
 </file>
@@ -462,7 +459,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,86 +489,85 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>365</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>365</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>365</v>
+        <v>90</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>365</v>
+        <v>90</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>365</v>
+        <v>90</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <f>ROUNDDOWN(1000/14,0)</f>
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -582,82 +578,80 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <f>ROUNDDOWN(1000/13,0)</f>
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>0.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14:B18" si="0">ROUNDDOWN(1000/13,0)</f>
-        <v>76</v>
+        <v>365</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -668,56 +662,52 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>76</v>
+        <v>365</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>76</v>
+        <v>365</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
-        <v>76</v>
+        <v>365</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
-        <v>76</v>
+        <v>365</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -728,17 +718,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <f>ROUNDDOWN(1000/13,0)</f>
-        <v>76</v>
+        <v>365</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.3</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/sorted_maintenance_tasks.xlsx
+++ b/sorted_maintenance_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bramv\Documents\MaintenanceECOFly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508F0167-3D73-4DC3-9A92-BE7EEA3272A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1673B92B-5227-44E8-8F01-97AC0C0310BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="103">
   <si>
     <t>Task Number</t>
   </si>
@@ -65,28 +65,283 @@
     <t>341100-50-01</t>
   </si>
   <si>
-    <t>321100-03-09</t>
-  </si>
-  <si>
-    <t>321100-00-15</t>
-  </si>
-  <si>
-    <t>353100-00-02</t>
-  </si>
-  <si>
-    <t>353103-00-01</t>
-  </si>
-  <si>
-    <t>321100-01-09</t>
-  </si>
-  <si>
-    <t>323200-50-01</t>
-  </si>
-  <si>
-    <t>324200-00-05</t>
-  </si>
-  <si>
     <t>300000-50-01</t>
+  </si>
+  <si>
+    <t>494000-00-01</t>
+  </si>
+  <si>
+    <t>521102-00-09</t>
+  </si>
+  <si>
+    <t>801000-00-02</t>
+  </si>
+  <si>
+    <t>531019-00-05</t>
+  </si>
+  <si>
+    <t>062403-00-01</t>
+  </si>
+  <si>
+    <t>215000-00-09</t>
+  </si>
+  <si>
+    <t>241000-00-02</t>
+  </si>
+  <si>
+    <t>254201-00-01</t>
+  </si>
+  <si>
+    <t>255100-00-01</t>
+  </si>
+  <si>
+    <t>273500-00-01</t>
+  </si>
+  <si>
+    <t>491000-00-02</t>
+  </si>
+  <si>
+    <t>725200-00-02</t>
+  </si>
+  <si>
+    <t>730000-00-06</t>
+  </si>
+  <si>
+    <t>753200-00-02</t>
+  </si>
+  <si>
+    <t>762000-00-01</t>
+  </si>
+  <si>
+    <t>762300-00-02</t>
+  </si>
+  <si>
+    <t>773100-00-01</t>
+  </si>
+  <si>
+    <t>062101-00-01</t>
+  </si>
+  <si>
+    <t>062101-00-02</t>
+  </si>
+  <si>
+    <t>062103-00-01</t>
+  </si>
+  <si>
+    <t>062108-00-01</t>
+  </si>
+  <si>
+    <t>062108-20-02</t>
+  </si>
+  <si>
+    <t>062202-20-01</t>
+  </si>
+  <si>
+    <t>062203-20-01</t>
+  </si>
+  <si>
+    <t>062204-00-01</t>
+  </si>
+  <si>
+    <t>062302-00-01</t>
+  </si>
+  <si>
+    <t>062303-00-01</t>
+  </si>
+  <si>
+    <t>062401-00-01</t>
+  </si>
+  <si>
+    <t>202103-00-01</t>
+  </si>
+  <si>
+    <t>202107-00-03</t>
+  </si>
+  <si>
+    <t>202108-00-01</t>
+  </si>
+  <si>
+    <t>202108-00-02</t>
+  </si>
+  <si>
+    <t>202108-00-03</t>
+  </si>
+  <si>
+    <t>202108-00-04</t>
+  </si>
+  <si>
+    <t>202202-00-01</t>
+  </si>
+  <si>
+    <t>202202-00-02</t>
+  </si>
+  <si>
+    <t>202203-00-01</t>
+  </si>
+  <si>
+    <t>202204-00-01</t>
+  </si>
+  <si>
+    <t>202505-00-01</t>
+  </si>
+  <si>
+    <t>202605-00-01</t>
+  </si>
+  <si>
+    <t>202901-00-02</t>
+  </si>
+  <si>
+    <t>213000-00-03</t>
+  </si>
+  <si>
+    <t>213000-00-06</t>
+  </si>
+  <si>
+    <t>221100-00-03</t>
+  </si>
+  <si>
+    <t>222100-00-02</t>
+  </si>
+  <si>
+    <t>222100-00-04</t>
+  </si>
+  <si>
+    <t>223100-00-01</t>
+  </si>
+  <si>
+    <t>223100-00-02</t>
+  </si>
+  <si>
+    <t>233100-00-02</t>
+  </si>
+  <si>
+    <t>255700-00-04</t>
+  </si>
+  <si>
+    <t>255700-00-05</t>
+  </si>
+  <si>
+    <t>255700-00-06</t>
+  </si>
+  <si>
+    <t>261301-00-02</t>
+  </si>
+  <si>
+    <t>261303-00-02</t>
+  </si>
+  <si>
+    <t>261303-00-04</t>
+  </si>
+  <si>
+    <t>262500-00-05</t>
+  </si>
+  <si>
+    <t>270001-00-03</t>
+  </si>
+  <si>
+    <t>270001-00-06</t>
+  </si>
+  <si>
+    <t>271100-00-06</t>
+  </si>
+  <si>
+    <t>273500-03-05</t>
+  </si>
+  <si>
+    <t>274200-00-04</t>
+  </si>
+  <si>
+    <t>274200-01-12</t>
+  </si>
+  <si>
+    <t>276400-00-01</t>
+  </si>
+  <si>
+    <t>282200-00-01</t>
+  </si>
+  <si>
+    <t>284300-00-01</t>
+  </si>
+  <si>
+    <t>290100-00-02</t>
+  </si>
+  <si>
+    <t>291300-00-02</t>
+  </si>
+  <si>
+    <t>303100-01-01</t>
+  </si>
+  <si>
+    <t>303100-01-02</t>
+  </si>
+  <si>
+    <t>323100-00-02</t>
+  </si>
+  <si>
+    <t>323300-00-03</t>
+  </si>
+  <si>
+    <t>324400-00-02</t>
+  </si>
+  <si>
+    <t>324400-00-05</t>
+  </si>
+  <si>
+    <t>324500-00-01</t>
+  </si>
+  <si>
+    <t>341100-00-04</t>
+  </si>
+  <si>
+    <t>341200-00-01</t>
+  </si>
+  <si>
+    <t>360000-00-02</t>
+  </si>
+  <si>
+    <t>360000-00-04</t>
+  </si>
+  <si>
+    <t>381200-00-02</t>
+  </si>
+  <si>
+    <t>521203-00-02</t>
+  </si>
+  <si>
+    <t>523002-00-04</t>
+  </si>
+  <si>
+    <t>523300-00-08</t>
+  </si>
+  <si>
+    <t>524102-00-01</t>
+  </si>
+  <si>
+    <t>524104-00-02</t>
+  </si>
+  <si>
+    <t>524502-00-01</t>
+  </si>
+  <si>
+    <t>524504-00-02</t>
+  </si>
+  <si>
+    <t>730000-00-05</t>
+  </si>
+  <si>
+    <t>761100-00-04</t>
+  </si>
+  <si>
+    <t>761100-00-09</t>
+  </si>
+  <si>
+    <t>761300-00-02</t>
+  </si>
+  <si>
+    <t>761300-00-06</t>
+  </si>
+  <si>
+    <t>783500-02-01</t>
   </si>
 </sst>
 </file>
@@ -456,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,10 +749,10 @@
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>365</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -508,10 +763,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>365</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -522,10 +777,10 @@
     </row>
     <row r="5" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>90</v>
+        <v>365</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -536,10 +791,10 @@
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>90</v>
+        <v>365</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -550,10 +805,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>90</v>
+        <v>365</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -564,10 +819,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>120</v>
+        <v>365</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -578,10 +833,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>300</v>
+        <v>365</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -592,10 +847,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>300</v>
+        <v>365</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -606,10 +861,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -620,13 +875,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>0.1</v>
@@ -634,13 +889,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -648,10 +903,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>365</v>
+        <v>1000</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -662,10 +917,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>365</v>
+        <v>1000</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -676,10 +931,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>365</v>
+        <v>74</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -690,10 +945,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>365</v>
+        <v>74</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -704,10 +959,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>365</v>
+        <v>74</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -721,13 +976,1287 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>365</v>
+        <v>74</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
         <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>74</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>74</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>74</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>74</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>74</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>74</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>74</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>74</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>74</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <v>74</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>74</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>74</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>74</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33">
+        <v>74</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34">
+        <v>740</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35">
+        <v>740</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36">
+        <v>740</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <v>740</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>740</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>740</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40">
+        <v>740</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41">
+        <v>740</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42">
+        <v>740</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43">
+        <v>740</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44">
+        <v>740</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45">
+        <v>740</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46">
+        <v>740</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47">
+        <v>740</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48">
+        <v>740</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49">
+        <v>740</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50">
+        <v>740</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51">
+        <v>740</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52">
+        <v>740</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53">
+        <v>740</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54">
+        <v>740</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55">
+        <v>740</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56">
+        <v>740</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57">
+        <v>740</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58">
+        <v>740</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59">
+        <v>740</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60">
+        <v>740</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61">
+        <v>740</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62">
+        <v>740</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63">
+        <v>740</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64">
+        <v>740</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65">
+        <v>740</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66">
+        <v>740</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67">
+        <v>740</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68">
+        <v>740</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69">
+        <v>740</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70">
+        <v>740</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71">
+        <v>740</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72">
+        <v>740</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>66</v>
+      </c>
+      <c r="B73">
+        <v>740</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74">
+        <v>740</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>68</v>
+      </c>
+      <c r="B75">
+        <v>740</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>69</v>
+      </c>
+      <c r="B76">
+        <v>740</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77">
+        <v>740</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>71</v>
+      </c>
+      <c r="B78">
+        <v>740</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79">
+        <v>740</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80">
+        <v>740</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81">
+        <v>740</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82">
+        <v>740</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83">
+        <v>740</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>77</v>
+      </c>
+      <c r="B84">
+        <v>740</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>78</v>
+      </c>
+      <c r="B85">
+        <v>740</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86">
+        <v>740</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>80</v>
+      </c>
+      <c r="B87">
+        <v>740</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88">
+        <v>740</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>82</v>
+      </c>
+      <c r="B89">
+        <v>740</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90">
+        <v>740</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>84</v>
+      </c>
+      <c r="B91">
+        <v>740</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>85</v>
+      </c>
+      <c r="B92">
+        <v>740</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>86</v>
+      </c>
+      <c r="B93">
+        <v>740</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>87</v>
+      </c>
+      <c r="B94">
+        <v>740</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>87</v>
+      </c>
+      <c r="B95">
+        <v>740</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>88</v>
+      </c>
+      <c r="B96">
+        <v>740</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>89</v>
+      </c>
+      <c r="B97">
+        <v>740</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>90</v>
+      </c>
+      <c r="B98">
+        <v>740</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>91</v>
+      </c>
+      <c r="B99">
+        <v>740</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>92</v>
+      </c>
+      <c r="B100">
+        <v>740</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>93</v>
+      </c>
+      <c r="B101">
+        <v>740</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>94</v>
+      </c>
+      <c r="B102">
+        <v>740</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>95</v>
+      </c>
+      <c r="B103">
+        <v>740</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>96</v>
+      </c>
+      <c r="B104">
+        <v>740</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>97</v>
+      </c>
+      <c r="B105">
+        <v>740</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>98</v>
+      </c>
+      <c r="B106">
+        <v>740</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>99</v>
+      </c>
+      <c r="B107">
+        <v>740</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>100</v>
+      </c>
+      <c r="B108">
+        <v>740</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>101</v>
+      </c>
+      <c r="B109">
+        <v>740</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>102</v>
+      </c>
+      <c r="B110">
+        <v>740</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/sorted_maintenance_tasks.xlsx
+++ b/sorted_maintenance_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bramv\Documents\MaintenanceECOFly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C876FE-0057-4C21-B121-97C2559263F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79919591-8989-4185-9FAE-47B69AA72B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2489,8 +2489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D824"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A834" workbookViewId="0">
-      <selection activeCell="Q854" sqref="Q854"/>
+    <sheetView tabSelected="1" topLeftCell="A783" workbookViewId="0">
+      <selection activeCell="H821" sqref="H821"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2945,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -3519,7 +3519,7 @@
         <v>165</v>
       </c>
       <c r="B74">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -3995,7 +3995,7 @@
         <v>177</v>
       </c>
       <c r="B108">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4009,7 +4009,7 @@
         <v>177</v>
       </c>
       <c r="B109">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -4023,7 +4023,7 @@
         <v>178</v>
       </c>
       <c r="B110">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -4079,7 +4079,7 @@
         <v>181</v>
       </c>
       <c r="B114">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -4093,7 +4093,7 @@
         <v>182</v>
       </c>
       <c r="B115">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -4107,7 +4107,7 @@
         <v>183</v>
       </c>
       <c r="B116">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -6053,7 +6053,7 @@
         <v>294</v>
       </c>
       <c r="B255">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -6067,7 +6067,7 @@
         <v>295</v>
       </c>
       <c r="B256">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -6081,7 +6081,7 @@
         <v>296</v>
       </c>
       <c r="B257">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -6095,7 +6095,7 @@
         <v>296</v>
       </c>
       <c r="B258">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -6109,7 +6109,7 @@
         <v>297</v>
       </c>
       <c r="B259">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="C259">
         <v>2</v>
@@ -9749,7 +9749,7 @@
         <v>514</v>
       </c>
       <c r="B519">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="C519">
         <v>1</v>
@@ -9763,7 +9763,7 @@
         <v>514</v>
       </c>
       <c r="B520">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="C520">
         <v>1</v>
@@ -9777,7 +9777,7 @@
         <v>515</v>
       </c>
       <c r="B521">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="C521">
         <v>1</v>
@@ -9791,7 +9791,7 @@
         <v>515</v>
       </c>
       <c r="B522">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="C522">
         <v>1</v>
@@ -10085,7 +10085,7 @@
         <v>532</v>
       </c>
       <c r="B543">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C543">
         <v>1</v>
@@ -10099,7 +10099,7 @@
         <v>532</v>
       </c>
       <c r="B544">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="C544">
         <v>1</v>
@@ -10169,7 +10169,7 @@
         <v>536</v>
       </c>
       <c r="B549">
-        <v>700</v>
+        <v>666</v>
       </c>
       <c r="C549">
         <v>1</v>
@@ -10183,7 +10183,7 @@
         <v>537</v>
       </c>
       <c r="B550">
-        <v>730</v>
+        <v>666</v>
       </c>
       <c r="C550">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         <v>538</v>
       </c>
       <c r="B551">
-        <v>730</v>
+        <v>666</v>
       </c>
       <c r="C551">
         <v>1</v>
@@ -10211,7 +10211,7 @@
         <v>538</v>
       </c>
       <c r="B552">
-        <v>730</v>
+        <v>666</v>
       </c>
       <c r="C552">
         <v>1</v>
@@ -11401,7 +11401,7 @@
         <v>545</v>
       </c>
       <c r="B637">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="C637">
         <v>1</v>
@@ -11415,7 +11415,7 @@
         <v>545</v>
       </c>
       <c r="B638">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="C638">
         <v>1</v>
@@ -13529,7 +13529,7 @@
         <v>670</v>
       </c>
       <c r="B789">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="C789">
         <v>1</v>
@@ -13543,7 +13543,7 @@
         <v>670</v>
       </c>
       <c r="B790">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="C790">
         <v>1</v>
@@ -13767,7 +13767,7 @@
         <v>685</v>
       </c>
       <c r="B806">
-        <v>1500</v>
+        <v>1460</v>
       </c>
       <c r="C806">
         <v>1</v>
@@ -13781,7 +13781,7 @@
         <v>686</v>
       </c>
       <c r="B807">
-        <v>1500</v>
+        <v>1460</v>
       </c>
       <c r="C807">
         <v>1</v>
@@ -13795,7 +13795,7 @@
         <v>687</v>
       </c>
       <c r="B808">
-        <v>1555</v>
+        <v>1460</v>
       </c>
       <c r="C808">
         <v>1</v>
@@ -13823,7 +13823,7 @@
         <v>689</v>
       </c>
       <c r="B810">
-        <v>1825</v>
+        <v>1800</v>
       </c>
       <c r="C810">
         <v>1</v>
@@ -13837,7 +13837,7 @@
         <v>690</v>
       </c>
       <c r="B811">
-        <v>1825</v>
+        <v>1800</v>
       </c>
       <c r="C811">
         <v>1</v>
@@ -13851,7 +13851,7 @@
         <v>691</v>
       </c>
       <c r="B812">
-        <v>1825</v>
+        <v>1800</v>
       </c>
       <c r="C812">
         <v>1</v>
@@ -13865,7 +13865,7 @@
         <v>692</v>
       </c>
       <c r="B813">
-        <v>1825</v>
+        <v>1800</v>
       </c>
       <c r="C813">
         <v>1</v>
@@ -13879,7 +13879,7 @@
         <v>693</v>
       </c>
       <c r="B814">
-        <v>1825</v>
+        <v>1800</v>
       </c>
       <c r="C814">
         <v>1</v>
@@ -13893,7 +13893,7 @@
         <v>694</v>
       </c>
       <c r="B815">
-        <v>1825</v>
+        <v>1800</v>
       </c>
       <c r="C815">
         <v>1</v>
@@ -13907,7 +13907,7 @@
         <v>695</v>
       </c>
       <c r="B816">
-        <v>1825</v>
+        <v>1800</v>
       </c>
       <c r="C816">
         <v>1</v>

--- a/sorted_maintenance_tasks.xlsx
+++ b/sorted_maintenance_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bramv\Documents\MaintenanceECOFly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79919591-8989-4185-9FAE-47B69AA72B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945CBD36-A97E-4BC6-8183-F1EB4A953B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="700">
   <si>
     <t>Task Number</t>
   </si>
@@ -2123,32 +2123,23 @@
     <t>262500-01-02</t>
   </si>
   <si>
-    <t>493000-00-01</t>
-  </si>
-  <si>
-    <t>495100-00-02</t>
-  </si>
-  <si>
-    <t>493000-00-02</t>
-  </si>
-  <si>
-    <t>499000-00-04</t>
-  </si>
-  <si>
-    <t>494000-00-02</t>
-  </si>
-  <si>
-    <t>492000-00-02</t>
-  </si>
-  <si>
-    <t>492000-01-02</t>
+    <t>M/H Modified</t>
+  </si>
+  <si>
+    <t>This is the list used as input for the python code. Compared to the modified MPD, is this sheet the intervals have been adjusted so that most intervals are a multiple of 37 days. This has been done to reduce the hangar days and thereby the cost of maintenance.</t>
+  </si>
+  <si>
+    <t>Hangar days have been determined by the type of tasks. We found that, tasks with an interval below 18 days** are only visual, functional or operational inspections which can be performed on the apron. Wherass tasks above the 18 days interval included replacement of equipment or in-depth inspections.</t>
+  </si>
+  <si>
+    <t>**: The intervals have been calculated by using the FH, FC, AH, DAILY, MO, YR and we used our flightplan of 13.5 hours for this. To see how exactly we calculated this, see the modified MPD.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2162,6 +2153,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2171,7 +2169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2179,12 +2177,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2487,15 +2592,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D824"/>
+  <dimension ref="A1:N817"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A783" workbookViewId="0">
-      <selection activeCell="H821" sqref="H821"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2505,8 +2610,11 @@
       <c r="C1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -2519,8 +2627,16 @@
       <c r="D2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -2533,8 +2649,14 @@
       <c r="D3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -2547,8 +2669,14 @@
       <c r="D4">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2561,8 +2689,14 @@
       <c r="D5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -2575,8 +2709,14 @@
       <c r="D6">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -2589,8 +2729,14 @@
       <c r="D7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -2604,7 +2750,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>108</v>
       </c>
@@ -2617,8 +2763,16 @@
       <c r="D9">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I9" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>109</v>
       </c>
@@ -2631,8 +2785,14 @@
       <c r="D10">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -2645,8 +2805,14 @@
       <c r="D11">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -2659,8 +2825,14 @@
       <c r="D12">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>112</v>
       </c>
@@ -2673,8 +2845,14 @@
       <c r="D13">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -2685,10 +2863,16 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -2699,10 +2883,16 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -2713,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -2727,10 +2917,18 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>116</v>
       </c>
@@ -2743,8 +2941,14 @@
       <c r="D18">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>117</v>
       </c>
@@ -2757,8 +2961,14 @@
       <c r="D19">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>118</v>
       </c>
@@ -2771,8 +2981,14 @@
       <c r="D20">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -2785,8 +3001,14 @@
       <c r="D21">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I21" s="7"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>120</v>
       </c>
@@ -2800,7 +3022,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>121</v>
       </c>
@@ -2814,7 +3036,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>122</v>
       </c>
@@ -2828,7 +3050,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>123</v>
       </c>
@@ -2842,7 +3064,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>124</v>
       </c>
@@ -2853,10 +3075,10 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>125</v>
       </c>
@@ -2870,7 +3092,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>126</v>
       </c>
@@ -2884,7 +3106,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>127</v>
       </c>
@@ -2895,15 +3117,15 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>128</v>
       </c>
       <c r="B30">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2912,26 +3134,26 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>129</v>
       </c>
       <c r="B31">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>130</v>
       </c>
       <c r="B32">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2945,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2965,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -3091,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>0.3</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -3105,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>0.3</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -3119,7 +3341,7 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>0.3</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -3133,7 +3355,7 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>0.3</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -3155,7 +3377,7 @@
         <v>143</v>
       </c>
       <c r="B48">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3169,7 +3391,7 @@
         <v>144</v>
       </c>
       <c r="B49">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3183,7 +3405,7 @@
         <v>145</v>
       </c>
       <c r="B50">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3197,7 +3419,7 @@
         <v>145</v>
       </c>
       <c r="B51">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3211,7 +3433,7 @@
         <v>145</v>
       </c>
       <c r="B52">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3225,7 +3447,7 @@
         <v>146</v>
       </c>
       <c r="B53">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3239,7 +3461,7 @@
         <v>147</v>
       </c>
       <c r="B54">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -3253,7 +3475,7 @@
         <v>148</v>
       </c>
       <c r="B55">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -3267,13 +3489,13 @@
         <v>149</v>
       </c>
       <c r="B56">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -3281,13 +3503,13 @@
         <v>150</v>
       </c>
       <c r="B57">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -3295,13 +3517,13 @@
         <v>151</v>
       </c>
       <c r="B58">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -3309,13 +3531,13 @@
         <v>152</v>
       </c>
       <c r="B59">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -3323,7 +3545,7 @@
         <v>153</v>
       </c>
       <c r="B60">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -3337,13 +3559,13 @@
         <v>154</v>
       </c>
       <c r="B61">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -3351,13 +3573,13 @@
         <v>155</v>
       </c>
       <c r="B62">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -3365,13 +3587,13 @@
         <v>156</v>
       </c>
       <c r="B63">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -3379,7 +3601,7 @@
         <v>157</v>
       </c>
       <c r="B64">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -3393,13 +3615,13 @@
         <v>158</v>
       </c>
       <c r="B65">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -3407,7 +3629,7 @@
         <v>159</v>
       </c>
       <c r="B66">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -3421,7 +3643,7 @@
         <v>160</v>
       </c>
       <c r="B67">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -3435,7 +3657,7 @@
         <v>161</v>
       </c>
       <c r="B68">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -3449,7 +3671,7 @@
         <v>162</v>
       </c>
       <c r="B69">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -3463,13 +3685,13 @@
         <v>163</v>
       </c>
       <c r="B70">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -3477,13 +3699,13 @@
         <v>163</v>
       </c>
       <c r="B71">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -3491,13 +3713,13 @@
         <v>164</v>
       </c>
       <c r="B72">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -3505,13 +3727,13 @@
         <v>164</v>
       </c>
       <c r="B73">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -3519,13 +3741,13 @@
         <v>165</v>
       </c>
       <c r="B74">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74">
-        <v>0.3</v>
+        <v>2.1999999999999997</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -3533,7 +3755,7 @@
         <v>166</v>
       </c>
       <c r="B75">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3547,7 +3769,7 @@
         <v>166</v>
       </c>
       <c r="B76">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -3567,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -3581,7 +3803,7 @@
         <v>1</v>
       </c>
       <c r="D78">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -3609,7 +3831,7 @@
         <v>1</v>
       </c>
       <c r="D80">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -3623,7 +3845,7 @@
         <v>1</v>
       </c>
       <c r="D81">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -3679,7 +3901,7 @@
         <v>1</v>
       </c>
       <c r="D85">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -3735,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -3749,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -3763,7 +3985,7 @@
         <v>2</v>
       </c>
       <c r="D91">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -3813,7 +4035,7 @@
         <v>167</v>
       </c>
       <c r="B95">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -3827,7 +4049,7 @@
         <v>168</v>
       </c>
       <c r="B96">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -3841,7 +4063,7 @@
         <v>169</v>
       </c>
       <c r="B97">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -3855,7 +4077,7 @@
         <v>170</v>
       </c>
       <c r="B98">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -3869,7 +4091,7 @@
         <v>171</v>
       </c>
       <c r="B99">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -3883,7 +4105,7 @@
         <v>171</v>
       </c>
       <c r="B100">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -3897,7 +4119,7 @@
         <v>172</v>
       </c>
       <c r="B101">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -3911,7 +4133,7 @@
         <v>172</v>
       </c>
       <c r="B102">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -3925,7 +4147,7 @@
         <v>173</v>
       </c>
       <c r="B103">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -3939,13 +4161,13 @@
         <v>174</v>
       </c>
       <c r="B104">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -3953,13 +4175,13 @@
         <v>174</v>
       </c>
       <c r="B105">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -3967,13 +4189,13 @@
         <v>175</v>
       </c>
       <c r="B106">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106">
-        <v>0.2</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -3981,7 +4203,7 @@
         <v>176</v>
       </c>
       <c r="B107">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -3995,7 +4217,7 @@
         <v>177</v>
       </c>
       <c r="B108">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -4009,7 +4231,7 @@
         <v>177</v>
       </c>
       <c r="B109">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -4023,7 +4245,7 @@
         <v>178</v>
       </c>
       <c r="B110">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -4043,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="D111">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -4057,7 +4279,7 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -4071,7 +4293,7 @@
         <v>1</v>
       </c>
       <c r="D113">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -4099,7 +4321,7 @@
         <v>1</v>
       </c>
       <c r="D115">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -4113,7 +4335,7 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -4127,7 +4349,7 @@
         <v>1</v>
       </c>
       <c r="D117">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -4141,7 +4363,7 @@
         <v>1</v>
       </c>
       <c r="D118">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -4183,7 +4405,7 @@
         <v>1</v>
       </c>
       <c r="D121">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -4197,7 +4419,7 @@
         <v>1</v>
       </c>
       <c r="D122">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -4211,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -4225,7 +4447,7 @@
         <v>1</v>
       </c>
       <c r="D124">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -4239,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="D125">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -4253,7 +4475,7 @@
         <v>1</v>
       </c>
       <c r="D126">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -4267,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -4295,7 +4517,7 @@
         <v>1</v>
       </c>
       <c r="D129">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -4337,7 +4559,7 @@
         <v>1</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -4421,7 +4643,7 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -4435,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -4449,7 +4671,7 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -4463,7 +4685,7 @@
         <v>1</v>
       </c>
       <c r="D141">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -4477,7 +4699,7 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -4491,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -4505,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -4519,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="D145">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -4785,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -4799,7 +5021,7 @@
         <v>2</v>
       </c>
       <c r="D165">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -4813,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -4827,7 +5049,7 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>0.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -4883,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -5009,7 +5231,7 @@
         <v>1</v>
       </c>
       <c r="D180">
-        <v>2.5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -5017,13 +5239,13 @@
         <v>234</v>
       </c>
       <c r="B181">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -5031,7 +5253,7 @@
         <v>235</v>
       </c>
       <c r="B182">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -5045,7 +5267,7 @@
         <v>236</v>
       </c>
       <c r="B183">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -5059,7 +5281,7 @@
         <v>237</v>
       </c>
       <c r="B184">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -5073,13 +5295,13 @@
         <v>238</v>
       </c>
       <c r="B185">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -5087,13 +5309,13 @@
         <v>239</v>
       </c>
       <c r="B186">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -5101,13 +5323,13 @@
         <v>240</v>
       </c>
       <c r="B187">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -5115,7 +5337,7 @@
         <v>241</v>
       </c>
       <c r="B188">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -5129,13 +5351,13 @@
         <v>242</v>
       </c>
       <c r="B189">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -5143,13 +5365,13 @@
         <v>242</v>
       </c>
       <c r="B190">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -5157,7 +5379,7 @@
         <v>243</v>
       </c>
       <c r="B191">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -5171,7 +5393,7 @@
         <v>244</v>
       </c>
       <c r="B192">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -5185,13 +5407,13 @@
         <v>245</v>
       </c>
       <c r="B193">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>0.3</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -5199,13 +5421,13 @@
         <v>245</v>
       </c>
       <c r="B194">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>0.3</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -5213,7 +5435,7 @@
         <v>246</v>
       </c>
       <c r="B195">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -5227,7 +5449,7 @@
         <v>247</v>
       </c>
       <c r="B196">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -5241,13 +5463,13 @@
         <v>248</v>
       </c>
       <c r="B197">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -5255,7 +5477,7 @@
         <v>249</v>
       </c>
       <c r="B198">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -5269,7 +5491,7 @@
         <v>250</v>
       </c>
       <c r="B199">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -5283,7 +5505,7 @@
         <v>250</v>
       </c>
       <c r="B200">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -5297,7 +5519,7 @@
         <v>250</v>
       </c>
       <c r="B201">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -5311,7 +5533,7 @@
         <v>251</v>
       </c>
       <c r="B202">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -5325,7 +5547,7 @@
         <v>251</v>
       </c>
       <c r="B203">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -5339,7 +5561,7 @@
         <v>252</v>
       </c>
       <c r="B204">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -5401,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="D208">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -5415,7 +5637,7 @@
         <v>1</v>
       </c>
       <c r="D209">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -5443,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -5499,7 +5721,7 @@
         <v>1</v>
       </c>
       <c r="D215">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -5513,7 +5735,7 @@
         <v>1</v>
       </c>
       <c r="D216">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -5527,7 +5749,7 @@
         <v>1</v>
       </c>
       <c r="D217">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -5541,7 +5763,7 @@
         <v>1</v>
       </c>
       <c r="D218">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -5555,7 +5777,7 @@
         <v>1</v>
       </c>
       <c r="D219">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -5569,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -5597,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="D222">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -5625,7 +5847,7 @@
         <v>1</v>
       </c>
       <c r="D224">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -5639,7 +5861,7 @@
         <v>1</v>
       </c>
       <c r="D225">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -5653,7 +5875,7 @@
         <v>2</v>
       </c>
       <c r="D226">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -5737,7 +5959,7 @@
         <v>1</v>
       </c>
       <c r="D232">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -5751,7 +5973,7 @@
         <v>1</v>
       </c>
       <c r="D233">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -5765,7 +5987,7 @@
         <v>1</v>
       </c>
       <c r="D234">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -5779,7 +6001,7 @@
         <v>1</v>
       </c>
       <c r="D235">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -5793,7 +6015,7 @@
         <v>1</v>
       </c>
       <c r="D236">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -5863,7 +6085,7 @@
         <v>1</v>
       </c>
       <c r="D241">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -5877,7 +6099,7 @@
         <v>1</v>
       </c>
       <c r="D242">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -5905,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="D244">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -5919,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -5947,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="D247">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -5961,7 +6183,7 @@
         <v>1</v>
       </c>
       <c r="D248">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -5989,7 +6211,7 @@
         <v>1</v>
       </c>
       <c r="D250">
-        <v>0.1</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -5997,7 +6219,7 @@
         <v>292</v>
       </c>
       <c r="B251">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -6011,7 +6233,7 @@
         <v>292</v>
       </c>
       <c r="B252">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -6025,7 +6247,7 @@
         <v>293</v>
       </c>
       <c r="B253">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -6039,7 +6261,7 @@
         <v>293</v>
       </c>
       <c r="B254">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -6053,13 +6275,13 @@
         <v>294</v>
       </c>
       <c r="B255">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -6067,13 +6289,13 @@
         <v>295</v>
       </c>
       <c r="B256">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -6081,13 +6303,13 @@
         <v>296</v>
       </c>
       <c r="B257">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -6095,13 +6317,13 @@
         <v>296</v>
       </c>
       <c r="B258">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -6109,7 +6331,7 @@
         <v>297</v>
       </c>
       <c r="B259">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="C259">
         <v>2</v>
@@ -6123,7 +6345,7 @@
         <v>2</v>
       </c>
       <c r="B260">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -6137,7 +6359,7 @@
         <v>3</v>
       </c>
       <c r="B261">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -6151,7 +6373,7 @@
         <v>4</v>
       </c>
       <c r="B262">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -6165,13 +6387,13 @@
         <v>5</v>
       </c>
       <c r="B263">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -6179,7 +6401,7 @@
         <v>6</v>
       </c>
       <c r="B264">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -6193,13 +6415,13 @@
         <v>7</v>
       </c>
       <c r="B265">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265">
-        <v>0.3</v>
+        <v>2.1999999999999997</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -6207,13 +6429,13 @@
         <v>7</v>
       </c>
       <c r="B266">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>0.3</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -6221,13 +6443,13 @@
         <v>7</v>
       </c>
       <c r="B267">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267">
-        <v>0.3</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -6241,7 +6463,7 @@
         <v>1</v>
       </c>
       <c r="D268">
-        <v>0.2</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -6269,7 +6491,7 @@
         <v>1</v>
       </c>
       <c r="D270">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -6283,7 +6505,7 @@
         <v>1</v>
       </c>
       <c r="D271">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -6311,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="D273">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -6325,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="D274">
-        <v>0.3</v>
+        <v>0.79999999999999993</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -6339,7 +6561,7 @@
         <v>1</v>
       </c>
       <c r="D275">
-        <v>0.1</v>
+        <v>13.199999999999998</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -6353,7 +6575,7 @@
         <v>1</v>
       </c>
       <c r="D276">
-        <v>0.3</v>
+        <v>4.1000000000000005</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -6367,7 +6589,7 @@
         <v>1</v>
       </c>
       <c r="D277">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -6381,7 +6603,7 @@
         <v>1</v>
       </c>
       <c r="D278">
-        <v>0.3</v>
+        <v>2.5999999999999996</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -6423,7 +6645,7 @@
         <v>1</v>
       </c>
       <c r="D281">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -6437,7 +6659,7 @@
         <v>1</v>
       </c>
       <c r="D282">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -6465,7 +6687,7 @@
         <v>1</v>
       </c>
       <c r="D284">
-        <v>0.2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -6479,7 +6701,7 @@
         <v>1</v>
       </c>
       <c r="D285">
-        <v>0.3</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -6493,7 +6715,7 @@
         <v>1</v>
       </c>
       <c r="D286">
-        <v>0.3</v>
+        <v>10.100000000000001</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -6535,7 +6757,7 @@
         <v>1</v>
       </c>
       <c r="D289">
-        <v>0.2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -6549,7 +6771,7 @@
         <v>1</v>
       </c>
       <c r="D290">
-        <v>0.3</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -6563,7 +6785,7 @@
         <v>1</v>
       </c>
       <c r="D291">
-        <v>0.3</v>
+        <v>10.100000000000001</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -6633,7 +6855,7 @@
         <v>1</v>
       </c>
       <c r="D296">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -6647,7 +6869,7 @@
         <v>1</v>
       </c>
       <c r="D297">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -6661,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="D298">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -6675,7 +6897,7 @@
         <v>1</v>
       </c>
       <c r="D299">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -6815,7 +7037,7 @@
         <v>1</v>
       </c>
       <c r="D309">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -6829,7 +7051,7 @@
         <v>1</v>
       </c>
       <c r="D310">
-        <v>0.1</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -6843,7 +7065,7 @@
         <v>1</v>
       </c>
       <c r="D311">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -6857,7 +7079,7 @@
         <v>1</v>
       </c>
       <c r="D312">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -6885,7 +7107,7 @@
         <v>1</v>
       </c>
       <c r="D314">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -7081,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="D328">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
@@ -7095,7 +7317,7 @@
         <v>1</v>
       </c>
       <c r="D329">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
@@ -7109,7 +7331,7 @@
         <v>1</v>
       </c>
       <c r="D330">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
@@ -7123,7 +7345,7 @@
         <v>1</v>
       </c>
       <c r="D331">
-        <v>0.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
@@ -7165,7 +7387,7 @@
         <v>2</v>
       </c>
       <c r="D334">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
@@ -7193,7 +7415,7 @@
         <v>1</v>
       </c>
       <c r="D336">
-        <v>0.2</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
@@ -7207,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="D337">
-        <v>0.2</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
@@ -7235,7 +7457,7 @@
         <v>1</v>
       </c>
       <c r="D339">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
@@ -7249,7 +7471,7 @@
         <v>1</v>
       </c>
       <c r="D340">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
@@ -7277,7 +7499,7 @@
         <v>1</v>
       </c>
       <c r="D342">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
@@ -7291,7 +7513,7 @@
         <v>1</v>
       </c>
       <c r="D343">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
@@ -7333,7 +7555,7 @@
         <v>1</v>
       </c>
       <c r="D346">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
@@ -7347,7 +7569,7 @@
         <v>1</v>
       </c>
       <c r="D347">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
@@ -7417,7 +7639,7 @@
         <v>1</v>
       </c>
       <c r="D352">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
@@ -7431,7 +7653,7 @@
         <v>1</v>
       </c>
       <c r="D353">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
@@ -7445,7 +7667,7 @@
         <v>1</v>
       </c>
       <c r="D354">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
@@ -7487,7 +7709,7 @@
         <v>1</v>
       </c>
       <c r="D357">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
@@ -7515,7 +7737,7 @@
         <v>1</v>
       </c>
       <c r="D359">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
@@ -7543,7 +7765,7 @@
         <v>1</v>
       </c>
       <c r="D361">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
@@ -7557,7 +7779,7 @@
         <v>1</v>
       </c>
       <c r="D362">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
@@ -7571,7 +7793,7 @@
         <v>1</v>
       </c>
       <c r="D363">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
@@ -7585,7 +7807,7 @@
         <v>1</v>
       </c>
       <c r="D364">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
@@ -7599,7 +7821,7 @@
         <v>2</v>
       </c>
       <c r="D365">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
@@ -7613,7 +7835,7 @@
         <v>1</v>
       </c>
       <c r="D366">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
@@ -7627,7 +7849,7 @@
         <v>1</v>
       </c>
       <c r="D367">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
@@ -7641,7 +7863,7 @@
         <v>1</v>
       </c>
       <c r="D368">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
@@ -7795,7 +8017,7 @@
         <v>1</v>
       </c>
       <c r="D379">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
@@ -7837,7 +8059,7 @@
         <v>1</v>
       </c>
       <c r="D382">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
@@ -7865,7 +8087,7 @@
         <v>1</v>
       </c>
       <c r="D384">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
@@ -7879,7 +8101,7 @@
         <v>1</v>
       </c>
       <c r="D385">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
@@ -7907,7 +8129,7 @@
         <v>2</v>
       </c>
       <c r="D387">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
@@ -7963,7 +8185,7 @@
         <v>1</v>
       </c>
       <c r="D391">
-        <v>0.6</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
@@ -7977,7 +8199,7 @@
         <v>1</v>
       </c>
       <c r="D392">
-        <v>0.6</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
@@ -7991,7 +8213,7 @@
         <v>1</v>
       </c>
       <c r="D393">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
@@ -8005,7 +8227,7 @@
         <v>1</v>
       </c>
       <c r="D394">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
@@ -8019,7 +8241,7 @@
         <v>2</v>
       </c>
       <c r="D395">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
@@ -8033,7 +8255,7 @@
         <v>2</v>
       </c>
       <c r="D396">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
@@ -8047,7 +8269,7 @@
         <v>2</v>
       </c>
       <c r="D397">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
@@ -8061,7 +8283,7 @@
         <v>1</v>
       </c>
       <c r="D398">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
@@ -8075,7 +8297,7 @@
         <v>2</v>
       </c>
       <c r="D399">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
@@ -8103,7 +8325,7 @@
         <v>1</v>
       </c>
       <c r="D401">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
@@ -8117,7 +8339,7 @@
         <v>1</v>
       </c>
       <c r="D402">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
@@ -8131,7 +8353,7 @@
         <v>1</v>
       </c>
       <c r="D403">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
@@ -8145,7 +8367,7 @@
         <v>1</v>
       </c>
       <c r="D404">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
@@ -8215,7 +8437,7 @@
         <v>1</v>
       </c>
       <c r="D409">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
@@ -8229,7 +8451,7 @@
         <v>1</v>
       </c>
       <c r="D410">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
@@ -8271,7 +8493,7 @@
         <v>1</v>
       </c>
       <c r="D413">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
@@ -8285,7 +8507,7 @@
         <v>1</v>
       </c>
       <c r="D414">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
@@ -8313,7 +8535,7 @@
         <v>2</v>
       </c>
       <c r="D416">
-        <v>0.1</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
@@ -8327,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="D417">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
@@ -8341,7 +8563,7 @@
         <v>1</v>
       </c>
       <c r="D418">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
@@ -8369,7 +8591,7 @@
         <v>1</v>
       </c>
       <c r="D420">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
@@ -8383,7 +8605,7 @@
         <v>1</v>
       </c>
       <c r="D421">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
@@ -8523,7 +8745,7 @@
         <v>1</v>
       </c>
       <c r="D431">
-        <v>0.2</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
@@ -8537,7 +8759,7 @@
         <v>1</v>
       </c>
       <c r="D432">
-        <v>0.2</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
@@ -8565,7 +8787,7 @@
         <v>1</v>
       </c>
       <c r="D434">
-        <v>0.3</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
@@ -8579,7 +8801,7 @@
         <v>1</v>
       </c>
       <c r="D435">
-        <v>0.3</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
@@ -8635,7 +8857,7 @@
         <v>1</v>
       </c>
       <c r="D439">
-        <v>0.1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
@@ -8649,7 +8871,7 @@
         <v>1</v>
       </c>
       <c r="D440">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
@@ -8663,7 +8885,7 @@
         <v>1</v>
       </c>
       <c r="D441">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
@@ -8705,7 +8927,7 @@
         <v>1</v>
       </c>
       <c r="D444">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
@@ -8719,7 +8941,7 @@
         <v>1</v>
       </c>
       <c r="D445">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
@@ -8747,7 +8969,7 @@
         <v>1</v>
       </c>
       <c r="D447">
-        <v>0.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
@@ -8761,7 +8983,7 @@
         <v>1</v>
       </c>
       <c r="D448">
-        <v>0.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
@@ -8789,7 +9011,7 @@
         <v>1</v>
       </c>
       <c r="D450">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
@@ -8803,7 +9025,7 @@
         <v>1</v>
       </c>
       <c r="D451">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
@@ -8817,7 +9039,7 @@
         <v>1</v>
       </c>
       <c r="D452">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
@@ -8831,7 +9053,7 @@
         <v>1</v>
       </c>
       <c r="D453">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
@@ -8845,7 +9067,7 @@
         <v>1</v>
       </c>
       <c r="D454">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
@@ -8859,7 +9081,7 @@
         <v>1</v>
       </c>
       <c r="D455">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
@@ -8873,7 +9095,7 @@
         <v>1</v>
       </c>
       <c r="D456">
-        <v>0.3</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
@@ -8887,7 +9109,7 @@
         <v>1</v>
       </c>
       <c r="D457">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
@@ -8901,7 +9123,7 @@
         <v>1</v>
       </c>
       <c r="D458">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
@@ -8929,7 +9151,7 @@
         <v>1</v>
       </c>
       <c r="D460">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
@@ -8943,7 +9165,7 @@
         <v>1</v>
       </c>
       <c r="D461">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
@@ -8957,7 +9179,7 @@
         <v>1</v>
       </c>
       <c r="D462">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
@@ -8971,7 +9193,7 @@
         <v>3</v>
       </c>
       <c r="D463">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
@@ -8985,7 +9207,7 @@
         <v>3</v>
       </c>
       <c r="D464">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
@@ -9013,7 +9235,7 @@
         <v>1</v>
       </c>
       <c r="D466">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
@@ -9139,7 +9361,7 @@
         <v>1</v>
       </c>
       <c r="D475">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
@@ -9167,7 +9389,7 @@
         <v>1</v>
       </c>
       <c r="D477">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
@@ -9195,7 +9417,7 @@
         <v>1</v>
       </c>
       <c r="D479">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
@@ -9209,7 +9431,7 @@
         <v>1</v>
       </c>
       <c r="D480">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
@@ -9293,7 +9515,7 @@
         <v>1</v>
       </c>
       <c r="D486">
-        <v>0.1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
@@ -9349,7 +9571,7 @@
         <v>1</v>
       </c>
       <c r="D490">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
@@ -9363,7 +9585,7 @@
         <v>1</v>
       </c>
       <c r="D491">
-        <v>0.2</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
@@ -9377,7 +9599,7 @@
         <v>1</v>
       </c>
       <c r="D492">
-        <v>1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
@@ -9391,7 +9613,7 @@
         <v>1</v>
       </c>
       <c r="D493">
-        <v>1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
@@ -9433,7 +9655,7 @@
         <v>1</v>
       </c>
       <c r="D496">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
@@ -9447,7 +9669,7 @@
         <v>1</v>
       </c>
       <c r="D497">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
@@ -9461,7 +9683,7 @@
         <v>1</v>
       </c>
       <c r="D498">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
@@ -9475,7 +9697,7 @@
         <v>1</v>
       </c>
       <c r="D499">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
@@ -9489,7 +9711,7 @@
         <v>1</v>
       </c>
       <c r="D500">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
@@ -9643,7 +9865,7 @@
         <v>1</v>
       </c>
       <c r="D511">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
@@ -9699,7 +9921,7 @@
         <v>1</v>
       </c>
       <c r="D515">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
@@ -9713,7 +9935,7 @@
         <v>1</v>
       </c>
       <c r="D516">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
@@ -9741,7 +9963,7 @@
         <v>1</v>
       </c>
       <c r="D518">
-        <v>2</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.3">
@@ -9755,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="D519">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.3">
@@ -9769,7 +9991,7 @@
         <v>1</v>
       </c>
       <c r="D520">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
@@ -9805,7 +10027,7 @@
         <v>516</v>
       </c>
       <c r="B523">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="C523">
         <v>1</v>
@@ -9819,7 +10041,7 @@
         <v>517</v>
       </c>
       <c r="B524">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="C524">
         <v>1</v>
@@ -9833,7 +10055,7 @@
         <v>518</v>
       </c>
       <c r="B525">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="C525">
         <v>1</v>
@@ -9847,7 +10069,7 @@
         <v>518</v>
       </c>
       <c r="B526">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="C526">
         <v>1</v>
@@ -9861,7 +10083,7 @@
         <v>519</v>
       </c>
       <c r="B527">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="C527">
         <v>1</v>
@@ -9875,7 +10097,7 @@
         <v>519</v>
       </c>
       <c r="B528">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="C528">
         <v>1</v>
@@ -9889,7 +10111,7 @@
         <v>520</v>
       </c>
       <c r="B529">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="C529">
         <v>1</v>
@@ -9903,7 +10125,7 @@
         <v>521</v>
       </c>
       <c r="B530">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="C530">
         <v>1</v>
@@ -9917,13 +10139,13 @@
         <v>522</v>
       </c>
       <c r="B531">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="C531">
         <v>1</v>
       </c>
       <c r="D531">
-        <v>0.1</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.3">
@@ -9931,13 +10153,13 @@
         <v>523</v>
       </c>
       <c r="B532">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="C532">
         <v>1</v>
       </c>
       <c r="D532">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.3">
@@ -9945,7 +10167,7 @@
         <v>524</v>
       </c>
       <c r="B533">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="C533">
         <v>1</v>
@@ -9959,7 +10181,7 @@
         <v>525</v>
       </c>
       <c r="B534">
-        <v>540</v>
+        <v>518</v>
       </c>
       <c r="C534">
         <v>1</v>
@@ -9973,13 +10195,13 @@
         <v>526</v>
       </c>
       <c r="B535">
-        <v>592</v>
+        <v>518</v>
       </c>
       <c r="C535">
         <v>1</v>
       </c>
       <c r="D535">
-        <v>0.3</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.3">
@@ -9987,7 +10209,7 @@
         <v>527</v>
       </c>
       <c r="B536">
-        <v>592</v>
+        <v>518</v>
       </c>
       <c r="C536">
         <v>1</v>
@@ -10001,13 +10223,13 @@
         <v>528</v>
       </c>
       <c r="B537">
-        <v>592</v>
+        <v>518</v>
       </c>
       <c r="C537">
         <v>1</v>
       </c>
       <c r="D537">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.3">
@@ -10015,13 +10237,13 @@
         <v>529</v>
       </c>
       <c r="B538">
-        <v>592</v>
+        <v>518</v>
       </c>
       <c r="C538">
         <v>1</v>
       </c>
       <c r="D538">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.3">
@@ -10029,7 +10251,7 @@
         <v>530</v>
       </c>
       <c r="B539">
-        <v>592</v>
+        <v>518</v>
       </c>
       <c r="C539">
         <v>1</v>
@@ -10043,7 +10265,7 @@
         <v>530</v>
       </c>
       <c r="B540">
-        <v>592</v>
+        <v>518</v>
       </c>
       <c r="C540">
         <v>1</v>
@@ -10057,13 +10279,13 @@
         <v>531</v>
       </c>
       <c r="B541">
-        <v>592</v>
+        <v>518</v>
       </c>
       <c r="C541">
         <v>1</v>
       </c>
       <c r="D541">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.3">
@@ -10071,13 +10293,13 @@
         <v>531</v>
       </c>
       <c r="B542">
-        <v>592</v>
+        <v>518</v>
       </c>
       <c r="C542">
         <v>1</v>
       </c>
       <c r="D542">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.3">
@@ -10085,7 +10307,7 @@
         <v>532</v>
       </c>
       <c r="B543">
-        <v>592</v>
+        <v>518</v>
       </c>
       <c r="C543">
         <v>1</v>
@@ -10099,7 +10321,7 @@
         <v>532</v>
       </c>
       <c r="B544">
-        <v>592</v>
+        <v>518</v>
       </c>
       <c r="C544">
         <v>1</v>
@@ -10119,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="D545">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.3">
@@ -10133,7 +10355,7 @@
         <v>1</v>
       </c>
       <c r="D546">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.3">
@@ -10147,7 +10369,7 @@
         <v>1</v>
       </c>
       <c r="D547">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.3">
@@ -10161,7 +10383,7 @@
         <v>1</v>
       </c>
       <c r="D548">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.3">
@@ -10175,7 +10397,7 @@
         <v>1</v>
       </c>
       <c r="D549">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.3">
@@ -10183,13 +10405,13 @@
         <v>537</v>
       </c>
       <c r="B550">
-        <v>666</v>
+        <v>703</v>
       </c>
       <c r="C550">
         <v>1</v>
       </c>
       <c r="D550">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.3">
@@ -10197,13 +10419,13 @@
         <v>538</v>
       </c>
       <c r="B551">
-        <v>666</v>
+        <v>703</v>
       </c>
       <c r="C551">
         <v>1</v>
       </c>
       <c r="D551">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.3">
@@ -10211,13 +10433,13 @@
         <v>538</v>
       </c>
       <c r="B552">
-        <v>666</v>
+        <v>703</v>
       </c>
       <c r="C552">
         <v>1</v>
       </c>
       <c r="D552">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.3">
@@ -10245,7 +10467,7 @@
         <v>1</v>
       </c>
       <c r="D554">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.3">
@@ -10259,7 +10481,7 @@
         <v>1</v>
       </c>
       <c r="D555">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.3">
@@ -10273,7 +10495,7 @@
         <v>1</v>
       </c>
       <c r="D556">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.3">
@@ -10287,7 +10509,7 @@
         <v>1</v>
       </c>
       <c r="D557">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.3">
@@ -10301,7 +10523,7 @@
         <v>1</v>
       </c>
       <c r="D558">
-        <v>0.4</v>
+        <v>0.79999999999999993</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.3">
@@ -10315,7 +10537,7 @@
         <v>1</v>
       </c>
       <c r="D559">
-        <v>0.1</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.3">
@@ -10329,7 +10551,7 @@
         <v>1</v>
       </c>
       <c r="D560">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.3">
@@ -10357,7 +10579,7 @@
         <v>1</v>
       </c>
       <c r="D562">
-        <v>0.1</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.3">
@@ -10399,7 +10621,7 @@
         <v>1</v>
       </c>
       <c r="D565">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.3">
@@ -10413,7 +10635,7 @@
         <v>1</v>
       </c>
       <c r="D566">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.3">
@@ -10427,7 +10649,7 @@
         <v>1</v>
       </c>
       <c r="D567">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.3">
@@ -10441,7 +10663,7 @@
         <v>1</v>
       </c>
       <c r="D568">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.3">
@@ -10455,7 +10677,7 @@
         <v>1</v>
       </c>
       <c r="D569">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.3">
@@ -10469,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="D570">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.3">
@@ -10511,7 +10733,7 @@
         <v>1</v>
       </c>
       <c r="D573">
-        <v>0.1</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.3">
@@ -10525,7 +10747,7 @@
         <v>1</v>
       </c>
       <c r="D574">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.3">
@@ -10539,7 +10761,7 @@
         <v>1</v>
       </c>
       <c r="D575">
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.3">
@@ -10553,7 +10775,7 @@
         <v>1</v>
       </c>
       <c r="D576">
-        <v>0.1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.3">
@@ -10595,7 +10817,7 @@
         <v>1</v>
       </c>
       <c r="D579">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.3">
@@ -10609,7 +10831,7 @@
         <v>1</v>
       </c>
       <c r="D580">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.3">
@@ -10623,7 +10845,7 @@
         <v>1</v>
       </c>
       <c r="D581">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.3">
@@ -10637,7 +10859,7 @@
         <v>1</v>
       </c>
       <c r="D582">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.3">
@@ -10651,7 +10873,7 @@
         <v>1</v>
       </c>
       <c r="D583">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.3">
@@ -10735,7 +10957,7 @@
         <v>1</v>
       </c>
       <c r="D589">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.3">
@@ -10791,7 +11013,7 @@
         <v>1</v>
       </c>
       <c r="D593">
-        <v>0.8</v>
+        <v>3.9000000000000004</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.3">
@@ -10805,7 +11027,7 @@
         <v>1</v>
       </c>
       <c r="D594">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.3">
@@ -10847,7 +11069,7 @@
         <v>1</v>
       </c>
       <c r="D597">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.3">
@@ -10889,7 +11111,7 @@
         <v>1</v>
       </c>
       <c r="D600">
-        <v>0.5</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.3">
@@ -10931,7 +11153,7 @@
         <v>2</v>
       </c>
       <c r="D603">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.3">
@@ -11015,7 +11237,7 @@
         <v>1</v>
       </c>
       <c r="D609">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.3">
@@ -11085,7 +11307,7 @@
         <v>1</v>
       </c>
       <c r="D614">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.3">
@@ -11099,7 +11321,7 @@
         <v>1</v>
       </c>
       <c r="D615">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.3">
@@ -11351,7 +11573,7 @@
         <v>1</v>
       </c>
       <c r="D633">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.3">
@@ -11435,7 +11657,7 @@
         <v>1</v>
       </c>
       <c r="D639">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.3">
@@ -11491,7 +11713,7 @@
         <v>1</v>
       </c>
       <c r="D643">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.3">
@@ -11533,7 +11755,7 @@
         <v>2</v>
       </c>
       <c r="D646">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.3">
@@ -11547,7 +11769,7 @@
         <v>1</v>
       </c>
       <c r="D647">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.3">
@@ -11561,7 +11783,7 @@
         <v>1</v>
       </c>
       <c r="D648">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.3">
@@ -11575,7 +11797,7 @@
         <v>2</v>
       </c>
       <c r="D649">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.3">
@@ -11589,7 +11811,7 @@
         <v>1</v>
       </c>
       <c r="D650">
-        <v>1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.3">
@@ -11603,7 +11825,7 @@
         <v>1</v>
       </c>
       <c r="D651">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.3">
@@ -11617,7 +11839,7 @@
         <v>1</v>
       </c>
       <c r="D652">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.3">
@@ -11631,7 +11853,7 @@
         <v>1</v>
       </c>
       <c r="D653">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.3">
@@ -11645,7 +11867,7 @@
         <v>1</v>
       </c>
       <c r="D654">
-        <v>0.3</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.3">
@@ -11659,7 +11881,7 @@
         <v>1</v>
       </c>
       <c r="D655">
-        <v>0.3</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.3">
@@ -11673,7 +11895,7 @@
         <v>1</v>
       </c>
       <c r="D656">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.3">
@@ -11687,7 +11909,7 @@
         <v>1</v>
       </c>
       <c r="D657">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.3">
@@ -11701,7 +11923,7 @@
         <v>1</v>
       </c>
       <c r="D658">
-        <v>1</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.3">
@@ -11715,7 +11937,7 @@
         <v>1</v>
       </c>
       <c r="D659">
-        <v>1</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.3">
@@ -11729,7 +11951,7 @@
         <v>2</v>
       </c>
       <c r="D660">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.3">
@@ -11743,7 +11965,7 @@
         <v>2</v>
       </c>
       <c r="D661">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.3">
@@ -11785,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="D664">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.3">
@@ -11799,7 +12021,7 @@
         <v>1</v>
       </c>
       <c r="D665">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.3">
@@ -11813,7 +12035,7 @@
         <v>1</v>
       </c>
       <c r="D666">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.3">
@@ -11827,7 +12049,7 @@
         <v>1</v>
       </c>
       <c r="D667">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.3">
@@ -11841,7 +12063,7 @@
         <v>1</v>
       </c>
       <c r="D668">
-        <v>0.2</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.3">
@@ -11849,7 +12071,7 @@
         <v>9</v>
       </c>
       <c r="B669">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C669">
         <v>2</v>
@@ -11863,13 +12085,13 @@
         <v>10</v>
       </c>
       <c r="B670">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C670">
         <v>1</v>
       </c>
       <c r="D670">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.3">
@@ -11877,13 +12099,13 @@
         <v>10</v>
       </c>
       <c r="B671">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C671">
         <v>1</v>
       </c>
       <c r="D671">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.3">
@@ -11891,7 +12113,7 @@
         <v>11</v>
       </c>
       <c r="B672">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C672">
         <v>1</v>
@@ -11905,13 +12127,13 @@
         <v>569</v>
       </c>
       <c r="B673">
-        <v>1095</v>
+        <v>999</v>
       </c>
       <c r="C673">
         <v>1</v>
       </c>
       <c r="D673">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.3">
@@ -11919,13 +12141,13 @@
         <v>570</v>
       </c>
       <c r="B674">
-        <v>1095</v>
+        <v>999</v>
       </c>
       <c r="C674">
         <v>1</v>
       </c>
       <c r="D674">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.3">
@@ -11933,7 +12155,7 @@
         <v>571</v>
       </c>
       <c r="B675">
-        <v>1095</v>
+        <v>999</v>
       </c>
       <c r="C675">
         <v>1</v>
@@ -11947,7 +12169,7 @@
         <v>572</v>
       </c>
       <c r="B676">
-        <v>1095</v>
+        <v>999</v>
       </c>
       <c r="C676">
         <v>1</v>
@@ -11961,7 +12183,7 @@
         <v>573</v>
       </c>
       <c r="B677">
-        <v>1095</v>
+        <v>999</v>
       </c>
       <c r="C677">
         <v>1</v>
@@ -11975,7 +12197,7 @@
         <v>574</v>
       </c>
       <c r="B678">
-        <v>1095</v>
+        <v>999</v>
       </c>
       <c r="C678">
         <v>1</v>
@@ -11989,7 +12211,7 @@
         <v>574</v>
       </c>
       <c r="B679">
-        <v>1095</v>
+        <v>999</v>
       </c>
       <c r="C679">
         <v>1</v>
@@ -12003,13 +12225,13 @@
         <v>575</v>
       </c>
       <c r="B680">
-        <v>1095</v>
+        <v>999</v>
       </c>
       <c r="C680">
         <v>1</v>
       </c>
       <c r="D680">
-        <v>0.1</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.3">
@@ -12017,13 +12239,13 @@
         <v>575</v>
       </c>
       <c r="B681">
-        <v>1095</v>
+        <v>999</v>
       </c>
       <c r="C681">
         <v>1</v>
       </c>
       <c r="D681">
-        <v>0.1</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.3">
@@ -12031,13 +12253,13 @@
         <v>576</v>
       </c>
       <c r="B682">
-        <v>1095</v>
+        <v>999</v>
       </c>
       <c r="C682">
         <v>1</v>
       </c>
       <c r="D682">
-        <v>0.1</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.3">
@@ -12045,13 +12267,13 @@
         <v>576</v>
       </c>
       <c r="B683">
-        <v>1095</v>
+        <v>999</v>
       </c>
       <c r="C683">
         <v>1</v>
       </c>
       <c r="D683">
-        <v>0.1</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.3">
@@ -12059,7 +12281,7 @@
         <v>577</v>
       </c>
       <c r="B684">
-        <v>1095</v>
+        <v>999</v>
       </c>
       <c r="C684">
         <v>1</v>
@@ -12073,7 +12295,7 @@
         <v>578</v>
       </c>
       <c r="B685">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C685">
         <v>1</v>
@@ -12087,13 +12309,13 @@
         <v>579</v>
       </c>
       <c r="B686">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C686">
         <v>1</v>
       </c>
       <c r="D686">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.3">
@@ -12101,13 +12323,13 @@
         <v>580</v>
       </c>
       <c r="B687">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C687">
         <v>1</v>
       </c>
       <c r="D687">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.3">
@@ -12115,13 +12337,13 @@
         <v>581</v>
       </c>
       <c r="B688">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C688">
         <v>1</v>
       </c>
       <c r="D688">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.3">
@@ -12129,13 +12351,13 @@
         <v>582</v>
       </c>
       <c r="B689">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C689">
         <v>1</v>
       </c>
       <c r="D689">
-        <v>0.3</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.3">
@@ -12143,7 +12365,7 @@
         <v>583</v>
       </c>
       <c r="B690">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C690">
         <v>1</v>
@@ -12157,13 +12379,13 @@
         <v>584</v>
       </c>
       <c r="B691">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C691">
         <v>1</v>
       </c>
       <c r="D691">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.3">
@@ -12171,13 +12393,13 @@
         <v>585</v>
       </c>
       <c r="B692">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C692">
         <v>1</v>
       </c>
       <c r="D692">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.3">
@@ -12185,13 +12407,13 @@
         <v>586</v>
       </c>
       <c r="B693">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C693">
         <v>1</v>
       </c>
       <c r="D693">
-        <v>0.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.3">
@@ -12199,13 +12421,13 @@
         <v>587</v>
       </c>
       <c r="B694">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C694">
         <v>1</v>
       </c>
       <c r="D694">
-        <v>0.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.3">
@@ -12213,13 +12435,13 @@
         <v>588</v>
       </c>
       <c r="B695">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C695">
         <v>1</v>
       </c>
       <c r="D695">
-        <v>0.1</v>
+        <v>2.8000000000000003</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.3">
@@ -12227,13 +12449,13 @@
         <v>589</v>
       </c>
       <c r="B696">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C696">
         <v>2</v>
       </c>
       <c r="D696">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.3">
@@ -12241,13 +12463,13 @@
         <v>590</v>
       </c>
       <c r="B697">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C697">
         <v>1</v>
       </c>
       <c r="D697">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.3">
@@ -12255,13 +12477,13 @@
         <v>591</v>
       </c>
       <c r="B698">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C698">
         <v>1</v>
       </c>
       <c r="D698">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.3">
@@ -12269,13 +12491,13 @@
         <v>592</v>
       </c>
       <c r="B699">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C699">
         <v>1</v>
       </c>
       <c r="D699">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.3">
@@ -12283,13 +12505,13 @@
         <v>593</v>
       </c>
       <c r="B700">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C700">
         <v>1</v>
       </c>
       <c r="D700">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.3">
@@ -12297,13 +12519,13 @@
         <v>594</v>
       </c>
       <c r="B701">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C701">
         <v>1</v>
       </c>
       <c r="D701">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.3">
@@ -12311,13 +12533,13 @@
         <v>595</v>
       </c>
       <c r="B702">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C702">
         <v>1</v>
       </c>
       <c r="D702">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.3">
@@ -12325,13 +12547,13 @@
         <v>596</v>
       </c>
       <c r="B703">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C703">
         <v>1</v>
       </c>
       <c r="D703">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.3">
@@ -12339,13 +12561,13 @@
         <v>597</v>
       </c>
       <c r="B704">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C704">
         <v>1</v>
       </c>
       <c r="D704">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.3">
@@ -12353,7 +12575,7 @@
         <v>598</v>
       </c>
       <c r="B705">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C705">
         <v>1</v>
@@ -12367,7 +12589,7 @@
         <v>599</v>
       </c>
       <c r="B706">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C706">
         <v>1</v>
@@ -12381,7 +12603,7 @@
         <v>600</v>
       </c>
       <c r="B707">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C707">
         <v>1</v>
@@ -12395,13 +12617,13 @@
         <v>601</v>
       </c>
       <c r="B708">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C708">
         <v>1</v>
       </c>
       <c r="D708">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.3">
@@ -12409,13 +12631,13 @@
         <v>602</v>
       </c>
       <c r="B709">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C709">
         <v>1</v>
       </c>
       <c r="D709">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.3">
@@ -12423,13 +12645,13 @@
         <v>603</v>
       </c>
       <c r="B710">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C710">
         <v>1</v>
       </c>
       <c r="D710">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.3">
@@ -12437,13 +12659,13 @@
         <v>604</v>
       </c>
       <c r="B711">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C711">
         <v>1</v>
       </c>
       <c r="D711">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.3">
@@ -12451,13 +12673,13 @@
         <v>605</v>
       </c>
       <c r="B712">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C712">
         <v>1</v>
       </c>
       <c r="D712">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.3">
@@ -12465,13 +12687,13 @@
         <v>606</v>
       </c>
       <c r="B713">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C713">
         <v>1</v>
       </c>
       <c r="D713">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.3">
@@ -12479,13 +12701,13 @@
         <v>607</v>
       </c>
       <c r="B714">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C714">
         <v>1</v>
       </c>
       <c r="D714">
-        <v>0.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.3">
@@ -12493,13 +12715,13 @@
         <v>608</v>
       </c>
       <c r="B715">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C715">
         <v>1</v>
       </c>
       <c r="D715">
-        <v>0.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.3">
@@ -12507,13 +12729,13 @@
         <v>609</v>
       </c>
       <c r="B716">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C716">
         <v>1</v>
       </c>
       <c r="D716">
-        <v>0.1</v>
+        <v>2.8000000000000003</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.3">
@@ -12521,13 +12743,13 @@
         <v>610</v>
       </c>
       <c r="B717">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C717">
         <v>1</v>
       </c>
       <c r="D717">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.3">
@@ -12535,13 +12757,13 @@
         <v>611</v>
       </c>
       <c r="B718">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C718">
         <v>1</v>
       </c>
       <c r="D718">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.3">
@@ -12549,13 +12771,13 @@
         <v>612</v>
       </c>
       <c r="B719">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C719">
         <v>1</v>
       </c>
       <c r="D719">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.3">
@@ -12563,13 +12785,13 @@
         <v>613</v>
       </c>
       <c r="B720">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C720">
         <v>1</v>
       </c>
       <c r="D720">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.3">
@@ -12577,7 +12799,7 @@
         <v>614</v>
       </c>
       <c r="B721">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C721">
         <v>1</v>
@@ -12591,13 +12813,13 @@
         <v>615</v>
       </c>
       <c r="B722">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C722">
         <v>1</v>
       </c>
       <c r="D722">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.3">
@@ -12605,13 +12827,13 @@
         <v>616</v>
       </c>
       <c r="B723">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C723">
         <v>1</v>
       </c>
       <c r="D723">
-        <v>0.7</v>
+        <v>0.79999999999999993</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.3">
@@ -12619,13 +12841,13 @@
         <v>617</v>
       </c>
       <c r="B724">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C724">
         <v>1</v>
       </c>
       <c r="D724">
-        <v>0.7</v>
+        <v>0.79999999999999993</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.3">
@@ -12633,7 +12855,7 @@
         <v>618</v>
       </c>
       <c r="B725">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C725">
         <v>1</v>
@@ -12647,13 +12869,13 @@
         <v>619</v>
       </c>
       <c r="B726">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C726">
         <v>1</v>
       </c>
       <c r="D726">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.3">
@@ -12661,13 +12883,13 @@
         <v>619</v>
       </c>
       <c r="B727">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C727">
         <v>1</v>
       </c>
       <c r="D727">
-        <v>1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.3">
@@ -12675,7 +12897,7 @@
         <v>619</v>
       </c>
       <c r="B728">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C728">
         <v>1</v>
@@ -12689,7 +12911,7 @@
         <v>619</v>
       </c>
       <c r="B729">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C729">
         <v>1</v>
@@ -12703,7 +12925,7 @@
         <v>619</v>
       </c>
       <c r="B730">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C730">
         <v>1</v>
@@ -12717,7 +12939,7 @@
         <v>619</v>
       </c>
       <c r="B731">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C731">
         <v>1</v>
@@ -12731,7 +12953,7 @@
         <v>619</v>
       </c>
       <c r="B732">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C732">
         <v>1</v>
@@ -12745,7 +12967,7 @@
         <v>619</v>
       </c>
       <c r="B733">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C733">
         <v>1</v>
@@ -12759,7 +12981,7 @@
         <v>620</v>
       </c>
       <c r="B734">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C734">
         <v>1</v>
@@ -12773,7 +12995,7 @@
         <v>621</v>
       </c>
       <c r="B735">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C735">
         <v>1</v>
@@ -12787,7 +13009,7 @@
         <v>622</v>
       </c>
       <c r="B736">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C736">
         <v>1</v>
@@ -12801,7 +13023,7 @@
         <v>623</v>
       </c>
       <c r="B737">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C737">
         <v>1</v>
@@ -12815,7 +13037,7 @@
         <v>624</v>
       </c>
       <c r="B738">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C738">
         <v>1</v>
@@ -12829,13 +13051,13 @@
         <v>625</v>
       </c>
       <c r="B739">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C739">
         <v>1</v>
       </c>
       <c r="D739">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.3">
@@ -12843,13 +13065,13 @@
         <v>626</v>
       </c>
       <c r="B740">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C740">
         <v>1</v>
       </c>
       <c r="D740">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.3">
@@ -12857,13 +13079,13 @@
         <v>627</v>
       </c>
       <c r="B741">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C741">
         <v>1</v>
       </c>
       <c r="D741">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.3">
@@ -12871,13 +13093,13 @@
         <v>628</v>
       </c>
       <c r="B742">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C742">
         <v>1</v>
       </c>
       <c r="D742">
-        <v>0.2</v>
+        <v>1.5000000000000002</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.3">
@@ -12885,13 +13107,13 @@
         <v>629</v>
       </c>
       <c r="B743">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C743">
         <v>1</v>
       </c>
       <c r="D743">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.3">
@@ -12899,13 +13121,13 @@
         <v>630</v>
       </c>
       <c r="B744">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C744">
         <v>1</v>
       </c>
       <c r="D744">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.3">
@@ -12913,13 +13135,13 @@
         <v>631</v>
       </c>
       <c r="B745">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C745">
         <v>1</v>
       </c>
       <c r="D745">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.3">
@@ -12927,13 +13149,13 @@
         <v>632</v>
       </c>
       <c r="B746">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C746">
         <v>1</v>
       </c>
       <c r="D746">
-        <v>0.2</v>
+        <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.3">
@@ -12941,7 +13163,7 @@
         <v>633</v>
       </c>
       <c r="B747">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C747">
         <v>1</v>
@@ -12955,7 +13177,7 @@
         <v>634</v>
       </c>
       <c r="B748">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C748">
         <v>1</v>
@@ -12969,13 +13191,13 @@
         <v>635</v>
       </c>
       <c r="B749">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C749">
         <v>1</v>
       </c>
       <c r="D749">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.3">
@@ -12983,13 +13205,13 @@
         <v>635</v>
       </c>
       <c r="B750">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C750">
         <v>1</v>
       </c>
       <c r="D750">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.3">
@@ -12997,13 +13219,13 @@
         <v>636</v>
       </c>
       <c r="B751">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C751">
         <v>2</v>
       </c>
       <c r="D751">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.3">
@@ -13011,13 +13233,13 @@
         <v>637</v>
       </c>
       <c r="B752">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C752">
         <v>1</v>
       </c>
       <c r="D752">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.3">
@@ -13025,13 +13247,13 @@
         <v>638</v>
       </c>
       <c r="B753">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C753">
         <v>1</v>
       </c>
       <c r="D753">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.3">
@@ -13039,13 +13261,13 @@
         <v>639</v>
       </c>
       <c r="B754">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C754">
         <v>1</v>
       </c>
       <c r="D754">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.3">
@@ -13053,13 +13275,13 @@
         <v>639</v>
       </c>
       <c r="B755">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C755">
         <v>1</v>
       </c>
       <c r="D755">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.3">
@@ -13067,13 +13289,13 @@
         <v>640</v>
       </c>
       <c r="B756">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C756">
         <v>1</v>
       </c>
       <c r="D756">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.3">
@@ -13081,13 +13303,13 @@
         <v>640</v>
       </c>
       <c r="B757">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C757">
         <v>1</v>
       </c>
       <c r="D757">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.3">
@@ -13095,7 +13317,7 @@
         <v>641</v>
       </c>
       <c r="B758">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C758">
         <v>1</v>
@@ -13109,13 +13331,13 @@
         <v>642</v>
       </c>
       <c r="B759">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C759">
         <v>1</v>
       </c>
       <c r="D759">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.3">
@@ -13123,13 +13345,13 @@
         <v>643</v>
       </c>
       <c r="B760">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C760">
         <v>1</v>
       </c>
       <c r="D760">
-        <v>3</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.3">
@@ -13137,13 +13359,13 @@
         <v>643</v>
       </c>
       <c r="B761">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C761">
         <v>1</v>
       </c>
       <c r="D761">
-        <v>3</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.3">
@@ -13151,13 +13373,13 @@
         <v>644</v>
       </c>
       <c r="B762">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C762">
         <v>1</v>
       </c>
       <c r="D762">
-        <v>1.3</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.3">
@@ -13165,13 +13387,13 @@
         <v>645</v>
       </c>
       <c r="B763">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C763">
         <v>1</v>
       </c>
       <c r="D763">
-        <v>0.3</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.3">
@@ -13179,7 +13401,7 @@
         <v>646</v>
       </c>
       <c r="B764">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C764">
         <v>1</v>
@@ -13193,13 +13415,13 @@
         <v>647</v>
       </c>
       <c r="B765">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C765">
         <v>1</v>
       </c>
       <c r="D765">
-        <v>0.8</v>
+        <v>1.2000000000000002</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.3">
@@ -13207,13 +13429,13 @@
         <v>648</v>
       </c>
       <c r="B766">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C766">
         <v>2</v>
       </c>
       <c r="D766">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.3">
@@ -13221,7 +13443,7 @@
         <v>649</v>
       </c>
       <c r="B767">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C767">
         <v>1</v>
@@ -13235,7 +13457,7 @@
         <v>650</v>
       </c>
       <c r="B768">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C768">
         <v>1</v>
@@ -13249,7 +13471,7 @@
         <v>651</v>
       </c>
       <c r="B769">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C769">
         <v>1</v>
@@ -13263,7 +13485,7 @@
         <v>652</v>
       </c>
       <c r="B770">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C770">
         <v>1</v>
@@ -13277,7 +13499,7 @@
         <v>653</v>
       </c>
       <c r="B771">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C771">
         <v>1</v>
@@ -13291,13 +13513,13 @@
         <v>654</v>
       </c>
       <c r="B772">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C772">
         <v>1</v>
       </c>
       <c r="D772">
-        <v>0.7</v>
+        <v>0.79999999999999993</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.3">
@@ -13305,13 +13527,13 @@
         <v>655</v>
       </c>
       <c r="B773">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C773">
         <v>1</v>
       </c>
       <c r="D773">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.3">
@@ -13319,7 +13541,7 @@
         <v>656</v>
       </c>
       <c r="B774">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C774">
         <v>1</v>
@@ -13333,7 +13555,7 @@
         <v>657</v>
       </c>
       <c r="B775">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C775">
         <v>1</v>
@@ -13347,7 +13569,7 @@
         <v>658</v>
       </c>
       <c r="B776">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C776">
         <v>1</v>
@@ -13361,7 +13583,7 @@
         <v>659</v>
       </c>
       <c r="B777">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C777">
         <v>1</v>
@@ -13375,7 +13597,7 @@
         <v>660</v>
       </c>
       <c r="B778">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C778">
         <v>1</v>
@@ -13389,7 +13611,7 @@
         <v>661</v>
       </c>
       <c r="B779">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C779">
         <v>1</v>
@@ -13403,13 +13625,13 @@
         <v>662</v>
       </c>
       <c r="B780">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C780">
         <v>1</v>
       </c>
       <c r="D780">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.3">
@@ -13417,7 +13639,7 @@
         <v>663</v>
       </c>
       <c r="B781">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C781">
         <v>1</v>
@@ -13431,13 +13653,13 @@
         <v>664</v>
       </c>
       <c r="B782">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C782">
         <v>1</v>
       </c>
       <c r="D782">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.3">
@@ -13445,13 +13667,13 @@
         <v>665</v>
       </c>
       <c r="B783">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C783">
         <v>1</v>
       </c>
       <c r="D783">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.3">
@@ -13459,13 +13681,13 @@
         <v>666</v>
       </c>
       <c r="B784">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C784">
         <v>1</v>
       </c>
       <c r="D784">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.3">
@@ -13473,7 +13695,7 @@
         <v>667</v>
       </c>
       <c r="B785">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C785">
         <v>1</v>
@@ -13487,7 +13709,7 @@
         <v>668</v>
       </c>
       <c r="B786">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C786">
         <v>1</v>
@@ -13501,7 +13723,7 @@
         <v>669</v>
       </c>
       <c r="B787">
-        <v>1200</v>
+        <v>1110</v>
       </c>
       <c r="C787">
         <v>1</v>
@@ -13515,7 +13737,7 @@
         <v>669</v>
       </c>
       <c r="B788">
-        <v>1200</v>
+        <v>1110</v>
       </c>
       <c r="C788">
         <v>1</v>
@@ -13529,7 +13751,7 @@
         <v>670</v>
       </c>
       <c r="B789">
-        <v>1200</v>
+        <v>1110</v>
       </c>
       <c r="C789">
         <v>1</v>
@@ -13543,7 +13765,7 @@
         <v>670</v>
       </c>
       <c r="B790">
-        <v>1200</v>
+        <v>1110</v>
       </c>
       <c r="C790">
         <v>1</v>
@@ -13557,7 +13779,7 @@
         <v>671</v>
       </c>
       <c r="B791">
-        <v>1460</v>
+        <v>1443</v>
       </c>
       <c r="C791">
         <v>1</v>
@@ -13571,7 +13793,7 @@
         <v>672</v>
       </c>
       <c r="B792">
-        <v>1460</v>
+        <v>1443</v>
       </c>
       <c r="C792">
         <v>1</v>
@@ -13585,7 +13807,7 @@
         <v>673</v>
       </c>
       <c r="B793">
-        <v>1460</v>
+        <v>1443</v>
       </c>
       <c r="C793">
         <v>1</v>
@@ -13599,7 +13821,7 @@
         <v>674</v>
       </c>
       <c r="B794">
-        <v>1460</v>
+        <v>1443</v>
       </c>
       <c r="C794">
         <v>1</v>
@@ -13613,7 +13835,7 @@
         <v>675</v>
       </c>
       <c r="B795">
-        <v>1460</v>
+        <v>1443</v>
       </c>
       <c r="C795">
         <v>1</v>
@@ -13627,7 +13849,7 @@
         <v>676</v>
       </c>
       <c r="B796">
-        <v>1460</v>
+        <v>1443</v>
       </c>
       <c r="C796">
         <v>1</v>
@@ -13641,7 +13863,7 @@
         <v>677</v>
       </c>
       <c r="B797">
-        <v>1460</v>
+        <v>1443</v>
       </c>
       <c r="C797">
         <v>1</v>
@@ -13655,7 +13877,7 @@
         <v>678</v>
       </c>
       <c r="B798">
-        <v>1460</v>
+        <v>1443</v>
       </c>
       <c r="C798">
         <v>1</v>
@@ -13669,7 +13891,7 @@
         <v>679</v>
       </c>
       <c r="B799">
-        <v>1460</v>
+        <v>1443</v>
       </c>
       <c r="C799">
         <v>1</v>
@@ -13683,7 +13905,7 @@
         <v>680</v>
       </c>
       <c r="B800">
-        <v>1460</v>
+        <v>1443</v>
       </c>
       <c r="C800">
         <v>1</v>
@@ -13697,7 +13919,7 @@
         <v>681</v>
       </c>
       <c r="B801">
-        <v>1460</v>
+        <v>1443</v>
       </c>
       <c r="C801">
         <v>1</v>
@@ -13711,7 +13933,7 @@
         <v>682</v>
       </c>
       <c r="B802">
-        <v>1460</v>
+        <v>1443</v>
       </c>
       <c r="C802">
         <v>1</v>
@@ -13725,13 +13947,13 @@
         <v>683</v>
       </c>
       <c r="B803">
-        <v>1460</v>
+        <v>1443</v>
       </c>
       <c r="C803">
         <v>1</v>
       </c>
       <c r="D803">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.3">
@@ -13739,13 +13961,13 @@
         <v>684</v>
       </c>
       <c r="B804">
-        <v>1460</v>
+        <v>1443</v>
       </c>
       <c r="C804">
         <v>1</v>
       </c>
       <c r="D804">
-        <v>0.3</v>
+        <v>3.1999999999999997</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.3">
@@ -13753,13 +13975,13 @@
         <v>684</v>
       </c>
       <c r="B805">
-        <v>1460</v>
+        <v>1443</v>
       </c>
       <c r="C805">
         <v>1</v>
       </c>
       <c r="D805">
-        <v>0.3</v>
+        <v>3.1999999999999997</v>
       </c>
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.3">
@@ -13767,7 +13989,7 @@
         <v>685</v>
       </c>
       <c r="B806">
-        <v>1460</v>
+        <v>1443</v>
       </c>
       <c r="C806">
         <v>1</v>
@@ -13781,13 +14003,13 @@
         <v>686</v>
       </c>
       <c r="B807">
-        <v>1460</v>
+        <v>1443</v>
       </c>
       <c r="C807">
         <v>1</v>
       </c>
       <c r="D807">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.3">
@@ -13795,13 +14017,13 @@
         <v>687</v>
       </c>
       <c r="B808">
-        <v>1460</v>
+        <v>1443</v>
       </c>
       <c r="C808">
         <v>1</v>
       </c>
       <c r="D808">
-        <v>1.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.3">
@@ -13809,13 +14031,13 @@
         <v>688</v>
       </c>
       <c r="B809">
-        <v>1800</v>
+        <v>1776</v>
       </c>
       <c r="C809">
         <v>1</v>
       </c>
       <c r="D809">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.3">
@@ -13823,13 +14045,13 @@
         <v>689</v>
       </c>
       <c r="B810">
-        <v>1800</v>
+        <v>1776</v>
       </c>
       <c r="C810">
         <v>1</v>
       </c>
       <c r="D810">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.3">
@@ -13837,13 +14059,13 @@
         <v>690</v>
       </c>
       <c r="B811">
-        <v>1800</v>
+        <v>1776</v>
       </c>
       <c r="C811">
         <v>1</v>
       </c>
       <c r="D811">
-        <v>0.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.3">
@@ -13851,13 +14073,13 @@
         <v>691</v>
       </c>
       <c r="B812">
-        <v>1800</v>
+        <v>1776</v>
       </c>
       <c r="C812">
         <v>1</v>
       </c>
       <c r="D812">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.3">
@@ -13865,13 +14087,13 @@
         <v>692</v>
       </c>
       <c r="B813">
-        <v>1800</v>
+        <v>1776</v>
       </c>
       <c r="C813">
         <v>1</v>
       </c>
       <c r="D813">
-        <v>0.2</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.3">
@@ -13879,7 +14101,7 @@
         <v>693</v>
       </c>
       <c r="B814">
-        <v>1800</v>
+        <v>1776</v>
       </c>
       <c r="C814">
         <v>1</v>
@@ -13893,7 +14115,7 @@
         <v>694</v>
       </c>
       <c r="B815">
-        <v>1800</v>
+        <v>1776</v>
       </c>
       <c r="C815">
         <v>1</v>
@@ -13907,7 +14129,7 @@
         <v>695</v>
       </c>
       <c r="B816">
-        <v>1800</v>
+        <v>1776</v>
       </c>
       <c r="C816">
         <v>1</v>
@@ -13921,115 +14143,70 @@
         <v>8</v>
       </c>
       <c r="B817">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="C817">
         <v>1</v>
       </c>
       <c r="D817">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="818" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A818" t="s">
-        <v>696</v>
-      </c>
-      <c r="B818">
-        <v>2400</v>
-      </c>
-      <c r="C818">
-        <v>1</v>
-      </c>
-      <c r="D818">
         <v>0.4</v>
       </c>
     </row>
-    <row r="819" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A819" t="s">
-        <v>697</v>
-      </c>
-      <c r="B819">
-        <v>2400</v>
-      </c>
-      <c r="C819">
-        <v>1</v>
-      </c>
-      <c r="D819">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="820" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A820" t="s">
-        <v>698</v>
-      </c>
-      <c r="B820">
-        <v>4800</v>
-      </c>
-      <c r="C820">
-        <v>1</v>
-      </c>
-      <c r="D820">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="821" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A821" t="s">
-        <v>699</v>
-      </c>
-      <c r="B821">
-        <v>4800</v>
-      </c>
-      <c r="C821">
-        <v>1</v>
-      </c>
-      <c r="D821">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="822" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A822" t="s">
-        <v>700</v>
-      </c>
-      <c r="B822">
-        <v>6000</v>
-      </c>
-      <c r="C822">
-        <v>1</v>
-      </c>
-      <c r="D822">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="823" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A823" t="s">
-        <v>701</v>
-      </c>
-      <c r="B823">
-        <v>8000</v>
-      </c>
-      <c r="C823">
-        <v>2</v>
-      </c>
-      <c r="D823">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="824" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A824" t="s">
-        <v>702</v>
-      </c>
-      <c r="B824">
-        <v>8000</v>
-      </c>
-      <c r="C824">
-        <v>2</v>
-      </c>
-      <c r="D824">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I2:N7"/>
+    <mergeCell ref="I9:N15"/>
+    <mergeCell ref="I17:N21"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E2:E824">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F824">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G824">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H824">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>